--- a/lista_prev.xlsx
+++ b/lista_prev.xlsx
@@ -15,9 +15,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>None</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+  <si>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>CLIENT REFERENCE</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>OL1-2E55-3100</t>
+  </si>
+  <si>
+    <t>MR FOR MV ELECTRIC MOTORS AND D/S</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>OL1-2G43-5165</t>
+  </si>
+  <si>
+    <t>P&amp;ID - UTILITY SYSTEMS - LP STEAM DISTRIBUTION - SHEET 6</t>
+  </si>
+  <si>
+    <t>OL1-2G43-5515</t>
+  </si>
+  <si>
+    <t>P&amp;ID - UTILITY SYSTEMS - WET FLARE HEADER - SHEET 6</t>
+  </si>
+  <si>
+    <t>OL1-2G43-5527</t>
+  </si>
+  <si>
+    <t>P&amp;ID - UTILITY SYSTEMS - PROPYLENE BLOWDOWN HEADER - SHEET 2</t>
+  </si>
+  <si>
+    <t>OL1-2G43-5530</t>
+  </si>
+  <si>
+    <t>P&amp;ID - UTILITY SYSTEMS - HOT BLOWDOWN HEADER - SHEET 1</t>
+  </si>
+  <si>
+    <t>OL1-2G43-5539</t>
+  </si>
+  <si>
+    <t>P&amp;ID - UTILITY SYSTEMS - COLD BLOWDOWN HEADER - SHEET 4</t>
+  </si>
+  <si>
+    <t>OL1-2H03-0001</t>
+  </si>
+  <si>
+    <t>AMENDMENT - EE-020 - AIR CONDITIONING, VENTILATING AND DUCTING DESIGN</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>OL1-2M03-2007</t>
+  </si>
+  <si>
+    <t>MECHANICAL EQUIPMENT DATA SHEET - 10-F-2008 - QUENCH OIL FILTER</t>
+  </si>
+  <si>
+    <t>OL1-2M03-2008</t>
+  </si>
+  <si>
+    <t>MECHANICAL EQUIPMENT DATA SHEET - 10-E-2008 - VLP STEAM GENERATORS</t>
+  </si>
+  <si>
+    <t>OL1-2M03-2009</t>
+  </si>
+  <si>
+    <t>MECHANICAL EQUIPMENT DATA SHEET - 10-F-2009 - QO PUMP PURGE OIL FILTER</t>
+  </si>
+  <si>
+    <t>OL1-2M55-0010</t>
+  </si>
+  <si>
+    <t>MR RECYCLE GAS SCREW COMPRESSOR</t>
+  </si>
+  <si>
+    <t>OL1-2M55-0052</t>
+  </si>
+  <si>
+    <t>MR FOR SHOP ASS. LARGE COLUMNS</t>
+  </si>
+  <si>
+    <t>OL1-2M55-0053</t>
+  </si>
+  <si>
+    <t>MR FOR SHOP ASS. COLUMNS</t>
+  </si>
+  <si>
+    <t>OL1-2M55-0058</t>
+  </si>
+  <si>
+    <t>WIELAND TUBES (SOLO SOURCE)</t>
+  </si>
+  <si>
+    <t>OL1-2M55-0060</t>
+  </si>
+  <si>
+    <t>MR FOR C.S. S&amp;T HEAT EXCHANGERS</t>
+  </si>
+  <si>
+    <t>OL1-2M55-0061</t>
+  </si>
+  <si>
+    <t>MR FOR C.S. CLAD, S.S. AND LOW ALLOY S&amp;T HEAT EXCHANGERS</t>
+  </si>
+  <si>
+    <t>OL1-2M55-0102</t>
+  </si>
+  <si>
+    <t>MR COMPLEX WASTE WATER TREATMENT PACKAGE</t>
+  </si>
+  <si>
+    <t>OL1-2M55-0106</t>
+  </si>
+  <si>
+    <t>MR FILTERS AND COALESCERS</t>
+  </si>
+  <si>
+    <t>OL1-2M55-0116</t>
+  </si>
+  <si>
+    <t>MR HP FLARE SYSTEM</t>
+  </si>
+  <si>
+    <t>OL1-2M55-2001</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CONVECTION TUBES</t>
+  </si>
+  <si>
+    <t>OL1-2M55-2006</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR BURNERS</t>
+  </si>
+  <si>
+    <t>OL1-2M55-2011</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR ATTEMPERATOR</t>
+  </si>
+  <si>
+    <t>OL1-2M55-2012</t>
+  </si>
+  <si>
+    <t>MATERIAL REQUISITION FOR CONVECTION FINNING</t>
   </si>
 </sst>
 </file>
@@ -353,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -362,8 +518,339 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
